--- a/CAPAO_DA_CANOA.xlsx
+++ b/CAPAO_DA_CANOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C5A70AF-1DA8-4159-9B2F-FB5C5D3929CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D7DD7A-AB45-42FF-902F-ED312345728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1068,7 +1055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1128,36 +1115,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,14 +1159,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,7 +1206,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6559D983-51A3-4881-ABED-6AFBDC16DB65}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{84735FA7-DD9D-4E8F-B340-AF4BC5015015}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1278,10 +1236,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8495A9A6-70F2-4F93-9771-7BB4C645B8AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFF0429-EBFF-4231-8A44-D3110509F910}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1277,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7B3B50-323F-4FF6-BC7C-2C1B1896978F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5A9B60-CCCB-4282-824E-CC11E99F9165}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1340,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FF143B-3E40-4BF7-9DCD-3E87950C302A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85480832-9EBA-48A6-B442-A6991754D43C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1359,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198D546E-9A5B-8FF5-3AD5-9DB16FE834B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90E866D-AF54-7608-2EFF-0E3F2DEFB967}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1450,7 +1408,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960C9965-0277-DF5A-DD66-EDC65AF1DD33}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B2D46E-3A63-26A2-106B-709745661D1C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1469,7 +1427,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D04EB6-626D-8C79-0C90-DFB88D00D86D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0D6445-4880-3175-496A-B2C6013B3D6E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1500,7 +1458,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45E6CA8-2A3A-CBB3-45C0-94E93B21E001}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2A7069-F9B6-AF80-CAF1-62DE0BF5C677}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1531,7 +1489,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A6CF54-0B8B-8235-7B82-7FFCC9294093}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07E3E2F-48A6-897B-B759-593B74E3A241}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1574,7 +1532,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA710FC-6730-4A2D-98A7-E10C220D35F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE8B65F-5A82-47C4-BE43-8621A937015E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1570,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7966C55-CE2D-4219-92A6-33305892B823}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72881B5-B5CF-4B8E-9A62-617790C3E3A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1613,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD627B8-76D5-47A1-A317-122849F5DF85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E44AC5B-BC18-465D-9011-A8B0467ED352}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCDB099-48E3-41D0-A01D-8C885D58DBDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7206242C-8A60-4FC7-97A7-876D7FB372E5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1980,98 +1938,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5301,19 +5259,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5336,79 +5294,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5433,54 +5391,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="21" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5491,41 +5450,41 @@
       <c r="B2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="24">
         <v>45931</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>57198</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>4461</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>298</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="26" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5556,25 +5515,24 @@
       <c r="B1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="31">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="28">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="31">
         <v>18</v>
       </c>
-      <c r="F1" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="34">
-        <v>18</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>1.190318740907287E-3</v>
       </c>
     </row>

--- a/CAPAO_DA_CANOA.xlsx
+++ b/CAPAO_DA_CANOA.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D7DD7A-AB45-42FF-902F-ED312345728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C5854A-C1BB-4D05-9B59-7721A5C00D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="307">
   <si>
     <t>COMARCA</t>
   </si>
@@ -935,6 +936,18 @@
   </si>
   <si>
     <t>CAPÃO DA CANOA</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-Diversos</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT/não responde TEAMS</t>
   </si>
 </sst>
 </file>
@@ -944,7 +957,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,6 +1010,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1011,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,6 +1072,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1118,9 +1150,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1201,12 +1233,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{84735FA7-DD9D-4E8F-B340-AF4BC5015015}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0794A4E1-5A19-46A5-A2CE-17D18C3D479D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,10 +1272,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFF0429-EBFF-4231-8A44-D3110509F910}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD51744-4624-42E4-9B79-96819DF07461}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1313,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5A9B60-CCCB-4282-824E-CC11E99F9165}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3DB8AC-CF07-425E-876A-8F13987D712B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1376,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85480832-9EBA-48A6-B442-A6991754D43C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BD8EDC-B09A-4FA5-9CC9-6D18C217922E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1395,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90E866D-AF54-7608-2EFF-0E3F2DEFB967}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B452285B-434A-952A-1E63-0CC0ACCC0EE3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1408,7 +1444,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B2D46E-3A63-26A2-106B-709745661D1C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B09879-D0AB-D562-745B-E44D54A6A293}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1427,7 +1463,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0D6445-4880-3175-496A-B2C6013B3D6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783B2487-5472-5952-CF65-6989F1469881}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1458,7 +1494,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2A7069-F9B6-AF80-CAF1-62DE0BF5C677}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F90A56-A90A-7801-5176-98C1A04D40B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1489,7 +1525,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07E3E2F-48A6-897B-B759-593B74E3A241}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302313EE-6582-BAAC-936C-6D52DF085225}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1532,7 +1568,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE8B65F-5A82-47C4-BE43-8621A937015E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C1FDB4-22AD-474A-A4B5-A28C73D7F601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1606,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72881B5-B5CF-4B8E-9A62-617790C3E3A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC86BE3-D6C6-44FA-89EA-83AA197E8D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1649,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E44AC5B-BC18-465D-9011-A8B0467ED352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E6AD18-E15B-4AD1-B9E3-C0D94611A858}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7206242C-8A60-4FC7-97A7-876D7FB372E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA0F129-97C7-4120-A945-8052EB76BA51}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1938,98 +1974,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="35"/>
+    <col min="6" max="6" width="2" style="35" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5539,4 +5575,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CAPAO_DA_CANOA.xlsx
+++ b/CAPAO_DA_CANOA.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C5854A-C1BB-4D05-9B59-7721A5C00D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B035EBE-9058-4422-86CC-9225F86D332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="304">
   <si>
     <t>COMARCA</t>
   </si>
@@ -927,15 +926,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>CAPÃO DA CANOA</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1152,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1218,21 +1208,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,7 +1217,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{0794A4E1-5A19-46A5-A2CE-17D18C3D479D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9DC43E95-48E2-4D28-90AD-44B7C8088A6A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1272,10 +1247,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD51744-4624-42E4-9B79-96819DF07461}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B475554-1B41-4A5A-8998-0DD82EA2FA82}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1288,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3DB8AC-CF07-425E-876A-8F13987D712B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F4A13E-E5EB-4FEB-99CF-F5DC3A40BFDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1351,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BD8EDC-B09A-4FA5-9CC9-6D18C217922E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D635BCED-6D67-4562-BF26-F5F99DD3CABF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1370,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B452285B-434A-952A-1E63-0CC0ACCC0EE3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB68E807-1EF8-8AE9-A8E8-75BE243C3726}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1444,7 +1419,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B09879-D0AB-D562-745B-E44D54A6A293}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC5B110-7D97-098F-B207-46ADA125C999}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1463,7 +1438,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783B2487-5472-5952-CF65-6989F1469881}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79BE565-0EBB-1608-A9F0-8A571358D8E8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1494,7 +1469,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F90A56-A90A-7801-5176-98C1A04D40B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F712B370-1D07-9D4C-9D90-12343F629CAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1525,7 +1500,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302313EE-6582-BAAC-936C-6D52DF085225}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415AA5B2-6330-6DA6-6453-19CD65C60703}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1568,7 +1543,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C1FDB4-22AD-474A-A4B5-A28C73D7F601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EECA795-AEC5-4F22-91C7-F06EF7E8D925}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1581,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC86BE3-D6C6-44FA-89EA-83AA197E8D64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AD5510-6E7C-4194-B2BE-D13D15773055}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +1624,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E6AD18-E15B-4AD1-B9E3-C0D94611A858}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF3DEA9-6D22-431A-8E81-4BA18C585CDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA0F129-97C7-4120-A945-8052EB76BA51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A297B1-C011-418A-A7F5-DDA30F117B8A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1974,98 +1949,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="30"/>
+    <col min="6" max="6" width="2" style="30" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5531,54 +5506,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="31">
-        <v>18</v>
-      </c>
-      <c r="C2" s="29">
-        <v>1.190318740907287E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5591,25 +5518,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>303</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/CAPAO_DA_CANOA.xlsx
+++ b/CAPAO_DA_CANOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B035EBE-9058-4422-86CC-9225F86D332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D28C1DA-9A12-4DED-8D86-7864B263D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9DC43E95-48E2-4D28-90AD-44B7C8088A6A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{2479496C-C955-4F54-B193-405884FB49BB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1247,10 +1247,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B475554-1B41-4A5A-8998-0DD82EA2FA82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422E5C81-6D6E-45C2-A0C4-DF69EFD55646}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1288,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F4A13E-E5EB-4FEB-99CF-F5DC3A40BFDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC85937-E2F3-4B8D-BD40-F22F26789932}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1351,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D635BCED-6D67-4562-BF26-F5F99DD3CABF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F981152-8394-4E6F-9CA7-E5E6F338D838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1370,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB68E807-1EF8-8AE9-A8E8-75BE243C3726}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C38235-9A2A-1C2B-2DA7-EAE9BAD05B52}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1419,7 +1419,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC5B110-7D97-098F-B207-46ADA125C999}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16944E1-D06F-DA41-9916-81F7D10A96A0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1438,7 +1438,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79BE565-0EBB-1608-A9F0-8A571358D8E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5C335F-9E23-C697-0DE0-FAEC44EB4622}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1469,7 +1469,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F712B370-1D07-9D4C-9D90-12343F629CAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9E39E0-5CC9-0EC1-808D-7940490E3DC2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1500,7 +1500,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415AA5B2-6330-6DA6-6453-19CD65C60703}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A303033C-3D40-1C00-4797-4E2F9BFBDCA8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EECA795-AEC5-4F22-91C7-F06EF7E8D925}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7DA5B15-D993-4115-A1F3-A09095578906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1581,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AD5510-6E7C-4194-B2BE-D13D15773055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E8AB47-F22E-4273-AC2B-ABDC6455FFB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,50 +1606,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF3DEA9-6D22-431A-8E81-4BA18C585CDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1937,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A297B1-C011-418A-A7F5-DDA30F117B8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1BA19-7755-41BB-9A11-E9F91A3E9D5B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
